--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N2">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O2">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P2">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q2">
-        <v>5.260538062319778</v>
+        <v>9.230645466688999</v>
       </c>
       <c r="R2">
-        <v>47.344842560878</v>
+        <v>83.07580920020099</v>
       </c>
       <c r="S2">
-        <v>0.003678985050826236</v>
+        <v>0.008010774669212066</v>
       </c>
       <c r="T2">
-        <v>0.003678985050826237</v>
+        <v>0.008010774669212068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q3">
-        <v>3.896966907746778</v>
+        <v>5.671904173211</v>
       </c>
       <c r="R3">
-        <v>35.072702169721</v>
+        <v>51.047137558899</v>
       </c>
       <c r="S3">
-        <v>0.002725364369066593</v>
+        <v>0.004922336844256976</v>
       </c>
       <c r="T3">
-        <v>0.002725364369066593</v>
+        <v>0.004922336844256977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N4">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O4">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P4">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q4">
-        <v>1.305217811942</v>
+        <v>2.266820397935</v>
       </c>
       <c r="R4">
-        <v>11.746960307478</v>
+        <v>20.401383581415</v>
       </c>
       <c r="S4">
-        <v>0.0009128109636924154</v>
+        <v>0.001967250013984611</v>
       </c>
       <c r="T4">
-        <v>0.0009128109636924155</v>
+        <v>0.001967250013984611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N5">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O5">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P5">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q5">
-        <v>17.361314618557</v>
+        <v>14.028169322064</v>
       </c>
       <c r="R5">
-        <v>156.251831567013</v>
+        <v>126.253523898576</v>
       </c>
       <c r="S5">
-        <v>0.01214172698451992</v>
+        <v>0.01217428443830344</v>
       </c>
       <c r="T5">
-        <v>0.01214172698451993</v>
+        <v>0.01217428443830344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N6">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O6">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P6">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q6">
-        <v>197.4692761075538</v>
+        <v>238.0670391634125</v>
       </c>
       <c r="R6">
-        <v>1777.223484967984</v>
+        <v>2142.603352470712</v>
       </c>
       <c r="S6">
-        <v>0.1381011801817103</v>
+        <v>0.2066054225337561</v>
       </c>
       <c r="T6">
-        <v>0.1381011801817104</v>
+        <v>0.2066054225337562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>54.332227</v>
       </c>
       <c r="O7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q7">
         <v>146.2837499076098</v>
@@ -883,10 +883,10 @@
         <v>1316.553749168488</v>
       </c>
       <c r="S7">
-        <v>0.1023043123561351</v>
+        <v>0.1269517026199437</v>
       </c>
       <c r="T7">
-        <v>0.1023043123561351</v>
+        <v>0.1269517026199437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N8">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O8">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P8">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q8">
-        <v>48.99506731697601</v>
+        <v>58.46343274683112</v>
       </c>
       <c r="R8">
-        <v>440.955605852784</v>
+        <v>526.17089472148</v>
       </c>
       <c r="S8">
-        <v>0.03426495884793442</v>
+        <v>0.05073723043676694</v>
       </c>
       <c r="T8">
-        <v>0.03426495884793442</v>
+        <v>0.05073723043676695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N9">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O9">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P9">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q9">
-        <v>651.7063823866961</v>
+        <v>361.7996972626347</v>
       </c>
       <c r="R9">
-        <v>5865.357441480264</v>
+        <v>3256.197275363712</v>
       </c>
       <c r="S9">
-        <v>0.4557742972154081</v>
+        <v>0.3139862602912553</v>
       </c>
       <c r="T9">
-        <v>0.4557742972154082</v>
+        <v>0.3139862602912554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N10">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O10">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P10">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q10">
-        <v>54.91863101763779</v>
+        <v>85.40822629114456</v>
       </c>
       <c r="R10">
-        <v>494.2676791587401</v>
+        <v>768.674036620301</v>
       </c>
       <c r="S10">
-        <v>0.03840763437735384</v>
+        <v>0.07412114983556486</v>
       </c>
       <c r="T10">
-        <v>0.03840763437735385</v>
+        <v>0.07412114983556486</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>54.332227</v>
       </c>
       <c r="O11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q11">
-        <v>40.68330751704778</v>
+        <v>52.48032511653323</v>
       </c>
       <c r="R11">
-        <v>366.14976765343</v>
+        <v>472.322926048799</v>
       </c>
       <c r="S11">
-        <v>0.02845208577530621</v>
+        <v>0.04554481705452578</v>
       </c>
       <c r="T11">
-        <v>0.02845208577530621</v>
+        <v>0.04554481705452578</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N12">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O12">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P12">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q12">
-        <v>13.62612998186</v>
+        <v>20.97416808032389</v>
       </c>
       <c r="R12">
-        <v>122.63516983674</v>
+        <v>188.767512722915</v>
       </c>
       <c r="S12">
-        <v>0.009529505900347346</v>
+        <v>0.01820233860914635</v>
       </c>
       <c r="T12">
-        <v>0.009529505900347348</v>
+        <v>0.01820233860914635</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N13">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O13">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P13">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q13">
-        <v>181.24754924731</v>
+        <v>129.7981884617973</v>
       </c>
       <c r="R13">
-        <v>1631.22794322579</v>
+        <v>1168.183696156176</v>
       </c>
       <c r="S13">
-        <v>0.1267564299089395</v>
+        <v>0.1126447813418564</v>
       </c>
       <c r="T13">
-        <v>0.1267564299089396</v>
+        <v>0.1126447813418564</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N14">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O14">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P14">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q14">
-        <v>12.69270858997867</v>
+        <v>8.227280905658889</v>
       </c>
       <c r="R14">
-        <v>114.234377309808</v>
+        <v>74.04552815093</v>
       </c>
       <c r="S14">
-        <v>0.00887671272478794</v>
+        <v>0.007140009191489931</v>
       </c>
       <c r="T14">
-        <v>0.008876712724787943</v>
+        <v>0.007140009191489933</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>54.332227</v>
       </c>
       <c r="O15">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P15">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q15">
-        <v>9.402662761650667</v>
+        <v>5.055372245785556</v>
       </c>
       <c r="R15">
-        <v>84.623964854856</v>
+        <v>45.49835021207</v>
       </c>
       <c r="S15">
-        <v>0.006575801814998928</v>
+        <v>0.004387282349443645</v>
       </c>
       <c r="T15">
-        <v>0.006575801814998928</v>
+        <v>0.004387282349443646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N16">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O16">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P16">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q16">
-        <v>3.149249969712</v>
+        <v>2.020418641772222</v>
       </c>
       <c r="R16">
-        <v>28.343249727408</v>
+        <v>18.18376777595</v>
       </c>
       <c r="S16">
-        <v>0.002202444583164225</v>
+        <v>0.001753411344322632</v>
       </c>
       <c r="T16">
-        <v>0.002202444583164226</v>
+        <v>0.001753411344322632</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N17">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O17">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P17">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q17">
-        <v>41.889651701352</v>
+        <v>12.50331734885333</v>
       </c>
       <c r="R17">
-        <v>377.006865312168</v>
+        <v>112.52985613968</v>
       </c>
       <c r="S17">
-        <v>0.02929574894580882</v>
+        <v>0.01085094842617128</v>
       </c>
       <c r="T17">
-        <v>0.02929574894580882</v>
+        <v>0.01085094842617128</v>
       </c>
     </row>
   </sheetData>
